--- a/BurndownChartSampleS2.xlsx
+++ b/BurndownChartSampleS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E7AB29-02F7-4326-BA43-941A113B808B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E9B0C7-167F-44DF-AD1B-ACFFF85AD8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08DF2925-B64A-40E3-A5DB-06EC2EB21278}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08DF2925-B64A-40E3-A5DB-06EC2EB21278}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>Sprint Burndown Chart (Sprint 2)</t>
+  </si>
+  <si>
+    <t>Crud(Escopo e Bronze)</t>
   </si>
 </sst>
 </file>
@@ -723,57 +726,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="17" fontId="3" fillId="5" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -802,6 +754,57 @@
     </xf>
     <xf numFmtId="17" fontId="3" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -823,7 +826,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-BR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -942,34 +945,34 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>36</c:v>
+                  <c:v>56</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>36</c:v>
@@ -987,22 +990,22 @@
                   <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>36</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1041,67 +1044,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>37.375</c:v>
+                  <c:v>57.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>35.75</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.125</c:v>
+                  <c:v>52.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>42.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>32.5</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>30.875</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>29.25</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>27.625</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24.375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>22.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>21.125</c:v>
-                </c:pt>
                 <c:pt idx="11">
-                  <c:v>19.5</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>17.875</c:v>
+                  <c:v>27.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16.25</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>14.625</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>13</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>11.375</c:v>
+                  <c:v>17.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9.75</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8.125</c:v>
+                  <c:v>12.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>6.5</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4.875</c:v>
+                  <c:v>7.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1926,7 +1929,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2224,8 +2227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC29A8CD-DF58-4BF2-8F74-8CB7252C889B}">
   <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AF11" sqref="AF11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,35 +2241,35 @@
   <sheetData>
     <row r="1" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="26"/>
-      <c r="Z2" s="26"/>
-      <c r="AA2" s="26"/>
-      <c r="AB2" s="27"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
+      <c r="V2" s="37"/>
+      <c r="W2" s="37"/>
+      <c r="X2" s="37"/>
+      <c r="Y2" s="37"/>
+      <c r="Z2" s="37"/>
+      <c r="AA2" s="37"/>
+      <c r="AB2" s="38"/>
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
@@ -2282,33 +2285,33 @@
       <c r="AO2" s="3"/>
     </row>
     <row r="3" spans="2:41" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="28"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29"/>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29"/>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29"/>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29"/>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29"/>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29"/>
-      <c r="AB3" s="30"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="L3" s="40"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="40"/>
+      <c r="P3" s="40"/>
+      <c r="Q3" s="40"/>
+      <c r="R3" s="40"/>
+      <c r="S3" s="40"/>
+      <c r="T3" s="40"/>
+      <c r="U3" s="40"/>
+      <c r="V3" s="40"/>
+      <c r="W3" s="40"/>
+      <c r="X3" s="40"/>
+      <c r="Y3" s="40"/>
+      <c r="Z3" s="40"/>
+      <c r="AA3" s="40"/>
+      <c r="AB3" s="41"/>
       <c r="AC3" s="1"/>
       <c r="AD3" s="1"/>
       <c r="AE3" s="1"/>
@@ -2324,33 +2327,33 @@
       <c r="AO3" s="1"/>
     </row>
     <row r="4" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="31"/>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="33"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+      <c r="N4" s="43"/>
+      <c r="O4" s="43"/>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="43"/>
+      <c r="U4" s="43"/>
+      <c r="V4" s="43"/>
+      <c r="W4" s="43"/>
+      <c r="X4" s="43"/>
+      <c r="Y4" s="43"/>
+      <c r="Z4" s="43"/>
+      <c r="AA4" s="43"/>
+      <c r="AB4" s="44"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
       <c r="AE4" s="2"/>
@@ -2366,10 +2369,10 @@
       <c r="AO4" s="2"/>
     </row>
     <row r="5" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="49" t="s">
         <v>1</v>
       </c>
       <c r="D5" s="14" t="s">
@@ -2435,16 +2438,16 @@
       <c r="X5" s="15">
         <v>41760</v>
       </c>
-      <c r="Y5" s="42">
+      <c r="Y5" s="25">
         <v>42125</v>
       </c>
-      <c r="Z5" s="49"/>
+      <c r="Z5" s="32"/>
       <c r="AA5" s="15"/>
       <c r="AB5" s="16"/>
     </row>
     <row r="6" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="37"/>
-      <c r="C6" s="39"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="50"/>
       <c r="D6" s="17" t="s">
         <v>3</v>
       </c>
@@ -2508,10 +2511,10 @@
       <c r="X6" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="Y6" s="43" t="s">
+      <c r="Y6" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="Z6" s="49"/>
+      <c r="Z6" s="32"/>
       <c r="AA6" s="15"/>
       <c r="AB6" s="16"/>
     </row>
@@ -2537,7 +2540,9 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="O7" s="10">
+        <v>1</v>
+      </c>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
@@ -2547,8 +2552,8 @@
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
-      <c r="Y7" s="44"/>
-      <c r="Z7" s="49"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="32"/>
       <c r="AA7" s="15"/>
       <c r="AB7" s="16"/>
     </row>
@@ -2574,7 +2579,9 @@
       <c r="L8" s="4"/>
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="O8" s="4">
+        <v>2</v>
+      </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
@@ -2584,8 +2591,8 @@
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
       <c r="X8" s="4"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="49"/>
+      <c r="Y8" s="28"/>
+      <c r="Z8" s="32"/>
       <c r="AA8" s="15"/>
       <c r="AB8" s="16"/>
     </row>
@@ -2611,7 +2618,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
+      <c r="O9" s="4">
+        <v>3</v>
+      </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
@@ -2621,8 +2630,8 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="45"/>
-      <c r="Z9" s="49"/>
+      <c r="Y9" s="28"/>
+      <c r="Z9" s="32"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="16"/>
     </row>
@@ -2646,7 +2655,9 @@
       <c r="L10" s="4"/>
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="O10" s="4">
+        <v>5</v>
+      </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
@@ -2656,8 +2667,8 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="45"/>
-      <c r="Z10" s="49"/>
+      <c r="Y10" s="28"/>
+      <c r="Z10" s="32"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="16"/>
     </row>
@@ -2681,7 +2692,9 @@
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
       <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
@@ -2691,8 +2704,8 @@
       <c r="V11" s="4"/>
       <c r="W11" s="4"/>
       <c r="X11" s="4"/>
-      <c r="Y11" s="45"/>
-      <c r="Z11" s="49"/>
+      <c r="Y11" s="28"/>
+      <c r="Z11" s="32"/>
       <c r="AA11" s="15"/>
       <c r="AB11" s="16"/>
     </row>
@@ -2721,22 +2734,32 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
+      <c r="T12" s="4">
+        <v>5</v>
+      </c>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
       <c r="X12" s="4"/>
-      <c r="Y12" s="45"/>
-      <c r="Z12" s="49"/>
+      <c r="Y12" s="28"/>
+      <c r="Z12" s="32"/>
       <c r="AA12" s="15"/>
       <c r="AB12" s="16"/>
     </row>
     <row r="13" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="21"/>
+      <c r="B13" s="7">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="21">
+        <v>21</v>
+      </c>
       <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="F13" s="4">
+        <v>1</v>
+      </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2745,18 +2768,22 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4"/>
+      <c r="O13" s="4">
+        <v>7</v>
+      </c>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
+      <c r="T13" s="4">
+        <v>7</v>
+      </c>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
       <c r="X13" s="4"/>
-      <c r="Y13" s="45"/>
-      <c r="Z13" s="49"/>
+      <c r="Y13" s="28"/>
+      <c r="Z13" s="32"/>
       <c r="AA13" s="15"/>
       <c r="AB13" s="16"/>
     </row>
@@ -2784,8 +2811,8 @@
       <c r="V14" s="4"/>
       <c r="W14" s="4"/>
       <c r="X14" s="4"/>
-      <c r="Y14" s="45"/>
-      <c r="Z14" s="49"/>
+      <c r="Y14" s="28"/>
+      <c r="Z14" s="32"/>
       <c r="AA14" s="15"/>
       <c r="AB14" s="16"/>
     </row>
@@ -2813,8 +2840,8 @@
       <c r="V15" s="4"/>
       <c r="W15" s="4"/>
       <c r="X15" s="4"/>
-      <c r="Y15" s="45"/>
-      <c r="Z15" s="49"/>
+      <c r="Y15" s="28"/>
+      <c r="Z15" s="32"/>
       <c r="AA15" s="15"/>
       <c r="AB15" s="16"/>
     </row>
@@ -2842,8 +2869,8 @@
       <c r="V16" s="4"/>
       <c r="W16" s="4"/>
       <c r="X16" s="4"/>
-      <c r="Y16" s="45"/>
-      <c r="Z16" s="49"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="32"/>
       <c r="AA16" s="15"/>
       <c r="AB16" s="16"/>
     </row>
@@ -2871,8 +2898,8 @@
       <c r="V17" s="4"/>
       <c r="W17" s="4"/>
       <c r="X17" s="4"/>
-      <c r="Y17" s="45"/>
-      <c r="Z17" s="49"/>
+      <c r="Y17" s="28"/>
+      <c r="Z17" s="32"/>
       <c r="AA17" s="15"/>
       <c r="AB17" s="16"/>
     </row>
@@ -2900,8 +2927,8 @@
       <c r="V18" s="4"/>
       <c r="W18" s="4"/>
       <c r="X18" s="4"/>
-      <c r="Y18" s="45"/>
-      <c r="Z18" s="49"/>
+      <c r="Y18" s="28"/>
+      <c r="Z18" s="32"/>
       <c r="AA18" s="15"/>
       <c r="AB18" s="16"/>
     </row>
@@ -2929,8 +2956,8 @@
       <c r="V19" s="4"/>
       <c r="W19" s="4"/>
       <c r="X19" s="4"/>
-      <c r="Y19" s="45"/>
-      <c r="Z19" s="49"/>
+      <c r="Y19" s="28"/>
+      <c r="Z19" s="32"/>
       <c r="AA19" s="15"/>
       <c r="AB19" s="16"/>
     </row>
@@ -2958,8 +2985,8 @@
       <c r="V20" s="4"/>
       <c r="W20" s="4"/>
       <c r="X20" s="4"/>
-      <c r="Y20" s="45"/>
-      <c r="Z20" s="49"/>
+      <c r="Y20" s="28"/>
+      <c r="Z20" s="32"/>
       <c r="AA20" s="15"/>
       <c r="AB20" s="16"/>
     </row>
@@ -2988,8 +3015,8 @@
       <c r="V21" s="4"/>
       <c r="W21" s="4"/>
       <c r="X21" s="4"/>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="49"/>
+      <c r="Y21" s="28"/>
+      <c r="Z21" s="32"/>
       <c r="AA21" s="15"/>
       <c r="AB21" s="16"/>
     </row>
@@ -3018,59 +3045,59 @@
       <c r="V22" s="11"/>
       <c r="W22" s="11"/>
       <c r="X22" s="11"/>
-      <c r="Y22" s="46"/>
-      <c r="Z22" s="49"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="32"/>
       <c r="AA22" s="15"/>
       <c r="AB22" s="16"/>
     </row>
     <row r="23" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="C23" s="41"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="23">
         <f>SUM(D7:D22)</f>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E23" s="24">
         <f>D23-SUM(E7:E22)</f>
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="F23" s="24">
-        <f t="shared" ref="F23:AB23" si="0">E23-SUM(F7:F22)</f>
-        <v>36</v>
+        <f t="shared" ref="F23:Y23" si="0">E23-SUM(F7:F22)</f>
+        <v>56</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="H23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="L23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="O23" s="24">
         <f t="shared" si="0"/>
@@ -3094,128 +3121,128 @@
       </c>
       <c r="T23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="U23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="V23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="W23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="X23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="Y23" s="47">
+        <v>24</v>
+      </c>
+      <c r="Y23" s="30">
         <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-      <c r="Z23" s="49"/>
+        <v>24</v>
+      </c>
+      <c r="Z23" s="32"/>
       <c r="AA23" s="15"/>
       <c r="AB23" s="16"/>
     </row>
     <row r="24" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="46"/>
       <c r="D24" s="18">
         <f>SUM(D7:D22)</f>
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="E24" s="19">
         <f>$D$24-($D$24/24*1)</f>
-        <v>37.375</v>
+        <v>57.5</v>
       </c>
       <c r="F24" s="19">
         <f>$D$24-($D$24/24*2)</f>
-        <v>35.75</v>
+        <v>55</v>
       </c>
       <c r="G24" s="19">
         <f>$D$24-($D$24/24*3)</f>
-        <v>34.125</v>
+        <v>52.5</v>
       </c>
       <c r="H24" s="19">
         <f>$D$24-($D$24/24*4)</f>
-        <v>32.5</v>
+        <v>50</v>
       </c>
       <c r="I24" s="19">
         <f>$D$24-($D$24/24*5)</f>
-        <v>30.875</v>
+        <v>47.5</v>
       </c>
       <c r="J24" s="19">
         <f>$D$24-($D$24/24*6)</f>
-        <v>29.25</v>
+        <v>45</v>
       </c>
       <c r="K24" s="19">
         <f>$D$24-($D$24/24*7)</f>
-        <v>27.625</v>
+        <v>42.5</v>
       </c>
       <c r="L24" s="19">
         <f>$D$24-($D$24/24*8)</f>
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="M24" s="19">
         <f>$D$24-($D$24/24*9)</f>
-        <v>24.375</v>
+        <v>37.5</v>
       </c>
       <c r="N24" s="19">
         <f>$D$24-($D$24/24*10)</f>
-        <v>22.75</v>
+        <v>35</v>
       </c>
       <c r="O24" s="19">
         <f>$D$24-($D$24/24*11)</f>
-        <v>21.125</v>
+        <v>32.5</v>
       </c>
       <c r="P24" s="19">
         <f>$D$24-($D$24/24*12)</f>
-        <v>19.5</v>
+        <v>30</v>
       </c>
       <c r="Q24" s="19">
         <f>$D$24-($D$24/24*13)</f>
-        <v>17.875</v>
+        <v>27.5</v>
       </c>
       <c r="R24" s="19">
         <f>$D$24-($D$24/24*14)</f>
-        <v>16.25</v>
+        <v>25</v>
       </c>
       <c r="S24" s="19">
         <f>$D$24-($D$24/24*15)</f>
-        <v>14.625</v>
+        <v>22.5</v>
       </c>
       <c r="T24" s="19">
         <f>$D$24-($D$24/24*16)</f>
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="U24" s="19">
         <f>$D$24-($D$24/24*17)</f>
-        <v>11.375</v>
+        <v>17.5</v>
       </c>
       <c r="V24" s="19">
         <f>$D$24-($D$24/24*18)</f>
-        <v>9.75</v>
+        <v>15</v>
       </c>
       <c r="W24" s="19">
         <f>$D$24-($D$24/24*19)</f>
-        <v>8.125</v>
+        <v>12.5</v>
       </c>
       <c r="X24" s="19">
         <f>$D$24-($D$24/24*20)</f>
-        <v>6.5</v>
-      </c>
-      <c r="Y24" s="48">
+        <v>10</v>
+      </c>
+      <c r="Y24" s="31">
         <f>$D$24-($D$24/24*21)</f>
-        <v>4.875</v>
-      </c>
-      <c r="Z24" s="50"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="52"/>
+        <v>7.5</v>
+      </c>
+      <c r="Z24" s="33"/>
+      <c r="AA24" s="34"/>
+      <c r="AB24" s="35"/>
     </row>
     <row r="31" spans="1:28" x14ac:dyDescent="0.25">
       <c r="C31" s="8"/>

--- a/BurndownChartSampleS2.xlsx
+++ b/BurndownChartSampleS2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jooj\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E9B0C7-167F-44DF-AD1B-ACFFF85AD8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39BC59E1-F44B-4267-81D8-067CA346DB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{08DF2925-B64A-40E3-A5DB-06EC2EB21278}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{08DF2925-B64A-40E3-A5DB-06EC2EB21278}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Backlog ID</t>
   </si>
@@ -128,16 +128,7 @@
     <t>Conexão(BancoNuvem)</t>
   </si>
   <si>
-    <t>Wireframe(PrOUPrEGold)</t>
-  </si>
-  <si>
-    <t>Interface Pr ou PrEGold</t>
-  </si>
-  <si>
     <t>Sprint Burndown Chart (Sprint 2)</t>
-  </si>
-  <si>
-    <t>Crud(Escopo e Bronze)</t>
   </si>
 </sst>
 </file>
@@ -826,7 +817,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-BR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -945,67 +936,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>58</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>56</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>56</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>56</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>56</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>56</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>56</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>56</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>36</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>36</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>36</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>36</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>24</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>24</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1044,67 +1035,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>57.5</c:v>
+                  <c:v>25.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>55</c:v>
+                  <c:v>24.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>52.5</c:v>
+                  <c:v>23.625</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>50</c:v>
+                  <c:v>22.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>47.5</c:v>
+                  <c:v>21.375</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>20.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42.5</c:v>
+                  <c:v>19.125</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37.5</c:v>
+                  <c:v>16.875</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>35</c:v>
+                  <c:v>15.75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32.5</c:v>
+                  <c:v>14.625</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>30</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>27.5</c:v>
+                  <c:v>12.375</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25</c:v>
+                  <c:v>11.25</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22.5</c:v>
+                  <c:v>10.125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>17.5</c:v>
+                  <c:v>7.875</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15</c:v>
+                  <c:v>6.75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>12.5</c:v>
+                  <c:v>5.625</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>10</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>7.5</c:v>
+                  <c:v>3.375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1929,7 +1920,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2227,8 +2218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC29A8CD-DF58-4BF2-8F74-8CB7252C889B}">
   <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2242,7 +2233,7 @@
     <row r="1" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="37"/>
       <c r="D2" s="37"/>
@@ -2526,7 +2517,7 @@
         <v>27</v>
       </c>
       <c r="D7" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -2540,15 +2531,17 @@
       <c r="L7" s="10"/>
       <c r="M7" s="10"/>
       <c r="N7" s="10"/>
-      <c r="O7" s="10">
-        <v>1</v>
-      </c>
+      <c r="O7" s="10"/>
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
       <c r="R7" s="10"/>
       <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
+      <c r="T7" s="10">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10">
+        <v>3</v>
+      </c>
       <c r="V7" s="10"/>
       <c r="W7" s="10"/>
       <c r="X7" s="10"/>
@@ -2580,13 +2573,15 @@
       <c r="M8" s="4"/>
       <c r="N8" s="4"/>
       <c r="O8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
       <c r="S8" s="4"/>
-      <c r="T8" s="4"/>
+      <c r="T8" s="4">
+        <v>1</v>
+      </c>
       <c r="U8" s="4"/>
       <c r="V8" s="4"/>
       <c r="W8" s="4"/>
@@ -2612,14 +2607,16 @@
       </c>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
       <c r="N9" s="4"/>
       <c r="O9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
@@ -2630,7 +2627,9 @@
       <c r="V9" s="4"/>
       <c r="W9" s="4"/>
       <c r="X9" s="4"/>
-      <c r="Y9" s="28"/>
+      <c r="Y9" s="28">
+        <v>1</v>
+      </c>
       <c r="Z9" s="32"/>
       <c r="AA9" s="15"/>
       <c r="AB9" s="16"/>
@@ -2643,7 +2642,7 @@
         <v>30</v>
       </c>
       <c r="D10" s="21">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -2656,7 +2655,7 @@
       <c r="M10" s="4"/>
       <c r="N10" s="4"/>
       <c r="O10" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
@@ -2667,21 +2666,17 @@
       <c r="V10" s="4"/>
       <c r="W10" s="4"/>
       <c r="X10" s="4"/>
-      <c r="Y10" s="28"/>
+      <c r="Y10" s="28">
+        <v>3</v>
+      </c>
       <c r="Z10" s="32"/>
       <c r="AA10" s="15"/>
       <c r="AB10" s="16"/>
     </row>
     <row r="11" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="7">
-        <v>5</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="21">
-        <v>4</v>
-      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="21"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -2710,15 +2705,9 @@
       <c r="AB11" s="16"/>
     </row>
     <row r="12" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="7">
-        <v>6</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="21">
-        <v>21</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="21"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -2734,9 +2723,7 @@
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
-      <c r="T12" s="4">
-        <v>5</v>
-      </c>
+      <c r="T12" s="4"/>
       <c r="U12" s="4"/>
       <c r="V12" s="4"/>
       <c r="W12" s="4"/>
@@ -2747,19 +2734,11 @@
       <c r="AB12" s="16"/>
     </row>
     <row r="13" spans="2:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7">
-        <v>7</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="21">
-        <v>21</v>
-      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="21"/>
       <c r="E13" s="4"/>
-      <c r="F13" s="4">
-        <v>1</v>
-      </c>
+      <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -2768,16 +2747,12 @@
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
       <c r="N13" s="4"/>
-      <c r="O13" s="4">
-        <v>7</v>
-      </c>
+      <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="4">
-        <v>7</v>
-      </c>
+      <c r="T13" s="4"/>
       <c r="U13" s="4"/>
       <c r="V13" s="4"/>
       <c r="W13" s="4"/>
@@ -3057,91 +3032,91 @@
       <c r="C23" s="52"/>
       <c r="D23" s="23">
         <f>SUM(D7:D22)</f>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E23" s="24">
         <f>D23-SUM(E7:E22)</f>
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F23" s="24">
         <f t="shared" ref="F23:Y23" si="0">E23-SUM(F7:F22)</f>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="G23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="H23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="I23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="J23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="K23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="L23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="M23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="N23" s="24">
         <f t="shared" si="0"/>
-        <v>56</v>
+        <v>22</v>
       </c>
       <c r="O23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="P23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="Q23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="R23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="S23" s="24">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="T23" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="U23" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="V23" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="W23" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="X23" s="24">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="Y23" s="30">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="Z23" s="32"/>
       <c r="AA23" s="15"/>
@@ -3154,91 +3129,91 @@
       <c r="C24" s="46"/>
       <c r="D24" s="18">
         <f>SUM(D7:D22)</f>
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="E24" s="19">
         <f>$D$24-($D$24/24*1)</f>
-        <v>57.5</v>
+        <v>25.875</v>
       </c>
       <c r="F24" s="19">
         <f>$D$24-($D$24/24*2)</f>
-        <v>55</v>
+        <v>24.75</v>
       </c>
       <c r="G24" s="19">
         <f>$D$24-($D$24/24*3)</f>
-        <v>52.5</v>
+        <v>23.625</v>
       </c>
       <c r="H24" s="19">
         <f>$D$24-($D$24/24*4)</f>
-        <v>50</v>
+        <v>22.5</v>
       </c>
       <c r="I24" s="19">
         <f>$D$24-($D$24/24*5)</f>
-        <v>47.5</v>
+        <v>21.375</v>
       </c>
       <c r="J24" s="19">
         <f>$D$24-($D$24/24*6)</f>
-        <v>45</v>
+        <v>20.25</v>
       </c>
       <c r="K24" s="19">
         <f>$D$24-($D$24/24*7)</f>
-        <v>42.5</v>
+        <v>19.125</v>
       </c>
       <c r="L24" s="19">
         <f>$D$24-($D$24/24*8)</f>
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="M24" s="19">
         <f>$D$24-($D$24/24*9)</f>
-        <v>37.5</v>
+        <v>16.875</v>
       </c>
       <c r="N24" s="19">
         <f>$D$24-($D$24/24*10)</f>
-        <v>35</v>
+        <v>15.75</v>
       </c>
       <c r="O24" s="19">
         <f>$D$24-($D$24/24*11)</f>
-        <v>32.5</v>
+        <v>14.625</v>
       </c>
       <c r="P24" s="19">
         <f>$D$24-($D$24/24*12)</f>
-        <v>30</v>
+        <v>13.5</v>
       </c>
       <c r="Q24" s="19">
         <f>$D$24-($D$24/24*13)</f>
-        <v>27.5</v>
+        <v>12.375</v>
       </c>
       <c r="R24" s="19">
         <f>$D$24-($D$24/24*14)</f>
-        <v>25</v>
+        <v>11.25</v>
       </c>
       <c r="S24" s="19">
         <f>$D$24-($D$24/24*15)</f>
-        <v>22.5</v>
+        <v>10.125</v>
       </c>
       <c r="T24" s="19">
         <f>$D$24-($D$24/24*16)</f>
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="U24" s="19">
         <f>$D$24-($D$24/24*17)</f>
-        <v>17.5</v>
+        <v>7.875</v>
       </c>
       <c r="V24" s="19">
         <f>$D$24-($D$24/24*18)</f>
-        <v>15</v>
+        <v>6.75</v>
       </c>
       <c r="W24" s="19">
         <f>$D$24-($D$24/24*19)</f>
-        <v>12.5</v>
+        <v>5.625</v>
       </c>
       <c r="X24" s="19">
         <f>$D$24-($D$24/24*20)</f>
-        <v>10</v>
+        <v>4.5</v>
       </c>
       <c r="Y24" s="31">
         <f>$D$24-($D$24/24*21)</f>
-        <v>7.5</v>
+        <v>3.375</v>
       </c>
       <c r="Z24" s="33"/>
       <c r="AA24" s="34"/>
